--- a/Code/Results/Cases/Case_5_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509874005601489</v>
+        <v>0.8592388859344169</v>
       </c>
       <c r="C2">
-        <v>1.105493545964862</v>
+        <v>0.3418508317705005</v>
       </c>
       <c r="D2">
-        <v>0.04336585985395658</v>
+        <v>0.03885608809694219</v>
       </c>
       <c r="E2">
-        <v>0.173703713693115</v>
+        <v>0.08718440659772142</v>
       </c>
       <c r="F2">
-        <v>2.528896549905312</v>
+        <v>1.557330138999845</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.336350052405351</v>
+        <v>0.9864072933334995</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.067084129388988</v>
+        <v>0.3925723809337072</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161564942372365</v>
+        <v>0.7684864284123023</v>
       </c>
       <c r="C3">
-        <v>0.9498033097962377</v>
+        <v>0.3006474811034821</v>
       </c>
       <c r="D3">
-        <v>0.04168773766912892</v>
+        <v>0.03843379391268087</v>
       </c>
       <c r="E3">
-        <v>0.1508314843462202</v>
+        <v>0.08181199126970284</v>
       </c>
       <c r="F3">
-        <v>2.233464669090651</v>
+        <v>1.488194764439896</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.203800817430349</v>
+        <v>0.9564341054137628</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9169352325191369</v>
+        <v>0.3545240259354401</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950918628924683</v>
+        <v>0.7131505995820078</v>
       </c>
       <c r="C4">
-        <v>0.8559658127323928</v>
+        <v>0.2754571263163825</v>
       </c>
       <c r="D4">
-        <v>0.04077442167875489</v>
+        <v>0.03819084857078536</v>
       </c>
       <c r="E4">
-        <v>0.137230311579458</v>
+        <v>0.07857295233067418</v>
       </c>
       <c r="F4">
-        <v>2.057931843435838</v>
+        <v>1.4467161335497</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.12559605367916</v>
+        <v>0.938591943007097</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8266082537000656</v>
+        <v>0.3313776483317739</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865753341874182</v>
+        <v>0.6906967838333742</v>
       </c>
       <c r="C5">
-        <v>0.8180960008664329</v>
+        <v>0.2652181449354316</v>
       </c>
       <c r="D5">
-        <v>0.04042836860309151</v>
+        <v>0.03809587335076259</v>
       </c>
       <c r="E5">
-        <v>0.1317839861913086</v>
+        <v>0.07726771936905763</v>
       </c>
       <c r="F5">
-        <v>1.987695562552773</v>
+        <v>1.430054052876955</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.094435008677564</v>
+        <v>0.9314604687329364</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7901970967170726</v>
+        <v>0.321998475583392</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851648796904584</v>
+        <v>0.6869741073578268</v>
       </c>
       <c r="C6">
-        <v>0.8118281078698715</v>
+        <v>0.2635195280580831</v>
       </c>
       <c r="D6">
-        <v>0.04037239488159372</v>
+        <v>0.03808034358172563</v>
       </c>
       <c r="E6">
-        <v>0.1308850321636754</v>
+        <v>0.07705186575586254</v>
       </c>
       <c r="F6">
-        <v>1.976106152801179</v>
+        <v>1.427301774360586</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.089300982606375</v>
+        <v>0.9302846556909117</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7841731327170365</v>
+        <v>0.3204442527094216</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949767495468137</v>
+        <v>0.7128473925133676</v>
       </c>
       <c r="C7">
-        <v>0.8554536801805739</v>
+        <v>0.2753189347175748</v>
       </c>
       <c r="D7">
-        <v>0.04076965300045288</v>
+        <v>0.03818955150664394</v>
       </c>
       <c r="E7">
-        <v>0.1371564894874666</v>
+        <v>0.07855529036411824</v>
       </c>
       <c r="F7">
-        <v>2.056979594937317</v>
+        <v>1.446490452300353</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.125173053228565</v>
+        <v>0.9384952036657239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8261156782439585</v>
+        <v>0.3312509435946254</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389024239732464</v>
+        <v>0.8278664377279483</v>
       </c>
       <c r="C8">
-        <v>1.051401120817275</v>
+        <v>0.3276207234193294</v>
       </c>
       <c r="D8">
-        <v>0.04276084507849021</v>
+        <v>0.03870703842743239</v>
       </c>
       <c r="E8">
-        <v>0.1657160039327579</v>
+        <v>0.08531943730441327</v>
       </c>
       <c r="F8">
-        <v>2.425700855639946</v>
+        <v>1.533288758455726</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.289928698301608</v>
+        <v>0.9759548793168165</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014880508734961</v>
+        <v>0.3794079595848103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282807944349543</v>
+        <v>1.056554149964256</v>
       </c>
       <c r="C9">
-        <v>1.453294740184788</v>
+        <v>0.4310988719786906</v>
       </c>
       <c r="D9">
-        <v>0.04776465661261398</v>
+        <v>0.03985532292296057</v>
       </c>
       <c r="E9">
-        <v>0.2260024658760074</v>
+        <v>0.09907132646731043</v>
       </c>
       <c r="F9">
-        <v>3.204444789198135</v>
+        <v>1.711361868640807</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.642930838669542</v>
+        <v>1.053955803326403</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.403497353188286</v>
+        <v>0.4756047487398121</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.970315655343086</v>
+        <v>1.226597565596251</v>
       </c>
       <c r="C10">
-        <v>1.7653035441665</v>
+        <v>0.5077623236032878</v>
       </c>
       <c r="D10">
-        <v>0.05238828446825039</v>
+        <v>0.04078569740407545</v>
       </c>
       <c r="E10">
-        <v>0.2741529747255314</v>
+        <v>0.109492700764342</v>
       </c>
       <c r="F10">
-        <v>3.825227295450702</v>
+        <v>1.847220030664943</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.928016788253885</v>
+        <v>1.114159691422955</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.70615900407293</v>
+        <v>0.5474332886716837</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.292764294525512</v>
+        <v>1.304421482805367</v>
       </c>
       <c r="C11">
-        <v>1.912498019513009</v>
+        <v>0.5427952289990685</v>
       </c>
       <c r="D11">
-        <v>0.05477358007750155</v>
+        <v>0.04122894682303979</v>
       </c>
       <c r="E11">
-        <v>0.2972349939240644</v>
+        <v>0.1143072629545614</v>
       </c>
       <c r="F11">
-        <v>4.122142674927915</v>
+        <v>1.910169149029656</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>2.065309193548615</v>
+        <v>1.142204973610276</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.849164779263276</v>
+        <v>0.5803781312048102</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.416560795750627</v>
+        <v>1.333960866045061</v>
       </c>
       <c r="C12">
-        <v>1.969156266817777</v>
+        <v>0.5560853916527435</v>
       </c>
       <c r="D12">
-        <v>0.05572518617384503</v>
+        <v>0.04139976655374511</v>
       </c>
       <c r="E12">
-        <v>0.3061793581378112</v>
+        <v>0.1161413861724441</v>
       </c>
       <c r="F12">
-        <v>4.237059642038275</v>
+        <v>1.934175194312019</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>2.118593441624157</v>
+        <v>1.152921812438493</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.904243348056838</v>
+        <v>0.5928935943052096</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.389818456712533</v>
+        <v>1.327595930807604</v>
       </c>
       <c r="C13">
-        <v>1.956910137616717</v>
+        <v>0.5532220323208321</v>
       </c>
       <c r="D13">
-        <v>0.05551795068225829</v>
+        <v>0.04136284386292743</v>
       </c>
       <c r="E13">
-        <v>0.304243357200555</v>
+        <v>0.1157458823683797</v>
       </c>
       <c r="F13">
-        <v>4.212192858232612</v>
+        <v>1.928997505798833</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>2.107056581341595</v>
+        <v>1.15060941593299</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.89233719010403</v>
+        <v>0.5901963687232836</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.302913307287099</v>
+        <v>1.306850310752736</v>
       </c>
       <c r="C14">
-        <v>1.917139879595197</v>
+        <v>0.5438881315085951</v>
       </c>
       <c r="D14">
-        <v>0.05485085049597416</v>
+        <v>0.04124294019405994</v>
       </c>
       <c r="E14">
-        <v>0.2979665513076455</v>
+        <v>0.1144579359140394</v>
       </c>
       <c r="F14">
-        <v>4.13154473510636</v>
+        <v>1.912140740838993</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>2.069665702818511</v>
+        <v>1.143084704606522</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.85367656520279</v>
+        <v>0.5814069780152806</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24991146076303</v>
+        <v>1.294152071615372</v>
       </c>
       <c r="C15">
-        <v>1.89290441881468</v>
+        <v>0.5381740042017782</v>
       </c>
       <c r="D15">
-        <v>0.05444878455141833</v>
+        <v>0.04116988537495558</v>
       </c>
       <c r="E15">
-        <v>0.2941494764177222</v>
+        <v>0.1136704680071929</v>
       </c>
       <c r="F15">
-        <v>4.082481421389843</v>
+        <v>1.901837550442167</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>2.046937844277863</v>
+        <v>1.138488255788502</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.830121544635233</v>
+        <v>0.5760284628549641</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949462357641266</v>
+        <v>1.221521182559854</v>
       </c>
       <c r="C16">
-        <v>1.755803154385092</v>
+        <v>0.5054761282407867</v>
       </c>
       <c r="D16">
-        <v>0.05223870875209258</v>
+        <v>0.04075714068621039</v>
       </c>
       <c r="E16">
-        <v>0.2726710143211548</v>
+        <v>0.1091795720662248</v>
       </c>
       <c r="F16">
-        <v>3.806147526905363</v>
+        <v>1.843129545314468</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.919213878583491</v>
+        <v>1.11234028605476</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.696933419292023</v>
+        <v>0.5452857932367863</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.767827179207757</v>
+        <v>1.177086010770552</v>
       </c>
       <c r="C17">
-        <v>1.673150416385113</v>
+        <v>0.4854584321332709</v>
       </c>
       <c r="D17">
-        <v>0.05096023999009702</v>
+        <v>0.04050912755196379</v>
       </c>
       <c r="E17">
-        <v>0.259819001840718</v>
+        <v>0.1064436997860128</v>
       </c>
       <c r="F17">
-        <v>3.640604567464607</v>
+        <v>1.807410370923662</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.842940179826002</v>
+        <v>1.096469392312216</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.616695799393511</v>
+        <v>0.5264960689365097</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.664247792534525</v>
+        <v>1.151572248965067</v>
       </c>
       <c r="C18">
-        <v>1.626094656658154</v>
+        <v>0.4739596112447657</v>
       </c>
       <c r="D18">
-        <v>0.05025089884228606</v>
+        <v>0.04036835552144424</v>
       </c>
       <c r="E18">
-        <v>0.2525353844479881</v>
+        <v>0.1048770269032104</v>
       </c>
       <c r="F18">
-        <v>3.546728132412682</v>
+        <v>1.786973341977529</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.799771627943784</v>
+        <v>1.08740270639295</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.571035302282823</v>
+        <v>0.5157140274994703</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629322569598685</v>
+        <v>1.142941268937648</v>
       </c>
       <c r="C19">
-        <v>1.610240983255721</v>
+        <v>0.4700688188489721</v>
       </c>
       <c r="D19">
-        <v>0.05001497847555214</v>
+        <v>0.04032101237529417</v>
       </c>
       <c r="E19">
-        <v>0.2500869647307553</v>
+        <v>0.1043477581770205</v>
       </c>
       <c r="F19">
-        <v>3.515162273244954</v>
+        <v>1.78007209966853</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.785270479626334</v>
+        <v>1.084343440057268</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.555655168252486</v>
+        <v>0.5120677249783796</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787068197332985</v>
+        <v>1.181811627981801</v>
       </c>
       <c r="C20">
-        <v>1.68189776871435</v>
+        <v>0.4875878067832105</v>
       </c>
       <c r="D20">
-        <v>0.05109359221737009</v>
+        <v>0.04053533388334785</v>
       </c>
       <c r="E20">
-        <v>0.2611756594640013</v>
+        <v>0.1067342185639149</v>
       </c>
       <c r="F20">
-        <v>3.658085617136834</v>
+        <v>1.811201565235393</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.850985633242928</v>
+        <v>1.098152461867727</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.625185438948648</v>
+        <v>0.5284936390555686</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.328390906232698</v>
+        <v>1.31294191298548</v>
       </c>
       <c r="C21">
-        <v>1.928794993683596</v>
+        <v>0.5466290644652076</v>
       </c>
       <c r="D21">
-        <v>0.05504541250392947</v>
+        <v>0.04127807744130507</v>
       </c>
       <c r="E21">
-        <v>0.2998043690656829</v>
+        <v>0.1148359370380732</v>
       </c>
       <c r="F21">
-        <v>4.155162224603146</v>
+        <v>1.917087376346899</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>2.080611404705479</v>
+        <v>1.14529225393305</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.865005600708884</v>
+        <v>0.5839875408696003</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.692216904421457</v>
+        <v>1.399046968058883</v>
       </c>
       <c r="C22">
-        <v>2.095609762841605</v>
+        <v>0.585356179735868</v>
       </c>
       <c r="D22">
-        <v>0.05791469210056022</v>
+        <v>0.04178086281141447</v>
       </c>
       <c r="E22">
-        <v>0.3262584255828145</v>
+        <v>0.1201948807503115</v>
       </c>
       <c r="F22">
-        <v>4.494728723779616</v>
+        <v>1.987274241148214</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>2.238350272888454</v>
+        <v>1.176665433310617</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.027231279217361</v>
+        <v>0.6204895364001572</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497005290330719</v>
+        <v>1.353053611058556</v>
       </c>
       <c r="C23">
-        <v>2.006017192520346</v>
+        <v>0.5646735557010629</v>
       </c>
       <c r="D23">
-        <v>0.05635411171701321</v>
+        <v>0.04151089767735527</v>
       </c>
       <c r="E23">
-        <v>0.3120158660651668</v>
+        <v>0.1173287428476613</v>
       </c>
       <c r="F23">
-        <v>4.312002517142446</v>
+        <v>1.949722884996618</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>2.153385053519173</v>
+        <v>1.159868634851733</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.940085705092059</v>
+        <v>0.6009859683627354</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.778366722539658</v>
+        <v>1.179675074980764</v>
       </c>
       <c r="C24">
-        <v>1.677941662329602</v>
+        <v>0.4866250866321593</v>
       </c>
       <c r="D24">
-        <v>0.05103322429582846</v>
+        <v>0.0405234803574146</v>
       </c>
       <c r="E24">
-        <v>0.2605619894570594</v>
+        <v>0.1066028556867167</v>
       </c>
       <c r="F24">
-        <v>3.650178425386827</v>
+        <v>1.809487260072018</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.847346173539336</v>
+        <v>1.097391366546461</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.62134582320536</v>
+        <v>0.5275904740860824</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.036495339458497</v>
+        <v>0.9943406728968966</v>
       </c>
       <c r="C25">
-        <v>1.342117218692977</v>
+        <v>0.4029991464116733</v>
       </c>
       <c r="D25">
-        <v>0.04626725468929038</v>
+        <v>0.03952983979668545</v>
       </c>
       <c r="E25">
-        <v>0.2091171831629595</v>
+        <v>0.09529676884171323</v>
       </c>
       <c r="F25">
-        <v>2.986417772131688</v>
+        <v>1.662322545892408</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.543519709002169</v>
+        <v>1.032355068990114</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.295832845895291</v>
+        <v>0.4493843379078157</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8592388859344169</v>
+        <v>2.509874005601489</v>
       </c>
       <c r="C2">
-        <v>0.3418508317705005</v>
+        <v>1.105493545964464</v>
       </c>
       <c r="D2">
-        <v>0.03885608809694219</v>
+        <v>0.04336585985395658</v>
       </c>
       <c r="E2">
-        <v>0.08718440659772142</v>
+        <v>0.1737037136931079</v>
       </c>
       <c r="F2">
-        <v>1.557330138999845</v>
+        <v>2.528896549905312</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.9864072933334995</v>
+        <v>1.336350052405336</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3925723809337072</v>
+        <v>1.067084129388981</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7684864284123023</v>
+        <v>2.161564942372365</v>
       </c>
       <c r="C3">
-        <v>0.3006474811034821</v>
+        <v>0.9498033097958682</v>
       </c>
       <c r="D3">
-        <v>0.03843379391268087</v>
+        <v>0.04168773766912537</v>
       </c>
       <c r="E3">
-        <v>0.08181199126970284</v>
+        <v>0.1508314843461989</v>
       </c>
       <c r="F3">
-        <v>1.488194764439896</v>
+        <v>2.233464669090708</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.9564341054137628</v>
+        <v>1.203800817430349</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3545240259354401</v>
+        <v>0.9169352325191298</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7131505995820078</v>
+        <v>1.950918628924569</v>
       </c>
       <c r="C4">
-        <v>0.2754571263163825</v>
+        <v>0.8559658127321939</v>
       </c>
       <c r="D4">
-        <v>0.03819084857078536</v>
+        <v>0.04077442167884016</v>
       </c>
       <c r="E4">
-        <v>0.07857295233067418</v>
+        <v>0.1372303115795184</v>
       </c>
       <c r="F4">
-        <v>1.4467161335497</v>
+        <v>2.05793184343581</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.938591943007097</v>
+        <v>1.125596053679146</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3313776483317739</v>
+        <v>0.8266082537000514</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6906967838333742</v>
+        <v>1.865753341874012</v>
       </c>
       <c r="C5">
-        <v>0.2652181449354316</v>
+        <v>0.818096000866575</v>
       </c>
       <c r="D5">
-        <v>0.03809587335076259</v>
+        <v>0.0404283686030702</v>
       </c>
       <c r="E5">
-        <v>0.07726771936905763</v>
+        <v>0.1317839861913619</v>
       </c>
       <c r="F5">
-        <v>1.430054052876955</v>
+        <v>1.987695562552787</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.9314604687329364</v>
+        <v>1.094435008677593</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.321998475583392</v>
+        <v>0.7901970967170868</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6869741073578268</v>
+        <v>1.851648796904584</v>
       </c>
       <c r="C6">
-        <v>0.2635195280580831</v>
+        <v>0.8118281078700704</v>
       </c>
       <c r="D6">
-        <v>0.03808034358172563</v>
+        <v>0.04037239488137701</v>
       </c>
       <c r="E6">
-        <v>0.07705186575586254</v>
+        <v>0.1308850321636505</v>
       </c>
       <c r="F6">
-        <v>1.427301774360586</v>
+        <v>1.976106152801165</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.9302846556909117</v>
+        <v>1.089300982606389</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3204442527094216</v>
+        <v>0.7841731327170365</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7128473925133676</v>
+        <v>1.949767495468251</v>
       </c>
       <c r="C7">
-        <v>0.2753189347175748</v>
+        <v>0.8554536801805739</v>
       </c>
       <c r="D7">
-        <v>0.03818955150664394</v>
+        <v>0.04076965300043156</v>
       </c>
       <c r="E7">
-        <v>0.07855529036411824</v>
+        <v>0.1371564894874489</v>
       </c>
       <c r="F7">
-        <v>1.446490452300353</v>
+        <v>2.056979594937317</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.9384952036657239</v>
+        <v>1.125173053228551</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3312509435946254</v>
+        <v>0.8261156782439301</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8278664377279483</v>
+        <v>2.389024239732578</v>
       </c>
       <c r="C8">
-        <v>0.3276207234193294</v>
+        <v>1.051401120817275</v>
       </c>
       <c r="D8">
-        <v>0.03870703842743239</v>
+        <v>0.04276084507857547</v>
       </c>
       <c r="E8">
-        <v>0.08531943730441327</v>
+        <v>0.1657160039326939</v>
       </c>
       <c r="F8">
-        <v>1.533288758455726</v>
+        <v>2.425700855639931</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.9759548793168165</v>
+        <v>1.289928698301622</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3794079595848103</v>
+        <v>1.014880508734961</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.056554149964256</v>
+        <v>3.282807944349543</v>
       </c>
       <c r="C9">
-        <v>0.4310988719786906</v>
+        <v>1.453294740184788</v>
       </c>
       <c r="D9">
-        <v>0.03985532292296057</v>
+        <v>0.04776465661273477</v>
       </c>
       <c r="E9">
-        <v>0.09907132646731043</v>
+        <v>0.2260024658760358</v>
       </c>
       <c r="F9">
-        <v>1.711361868640807</v>
+        <v>3.204444789198135</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.053955803326403</v>
+        <v>1.642930838669542</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4756047487398121</v>
+        <v>1.403497353188314</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.226597565596251</v>
+        <v>3.970315655343256</v>
       </c>
       <c r="C10">
-        <v>0.5077623236032878</v>
+        <v>1.765303544166443</v>
       </c>
       <c r="D10">
-        <v>0.04078569740407545</v>
+        <v>0.05238828446808697</v>
       </c>
       <c r="E10">
-        <v>0.109492700764342</v>
+        <v>0.2741529747254958</v>
       </c>
       <c r="F10">
-        <v>1.847220030664943</v>
+        <v>3.82522729545073</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.114159691422955</v>
+        <v>1.928016788253899</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5474332886716837</v>
+        <v>1.706159004072873</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.304421482805367</v>
+        <v>4.292764294525398</v>
       </c>
       <c r="C11">
-        <v>0.5427952289990685</v>
+        <v>1.912498019512782</v>
       </c>
       <c r="D11">
-        <v>0.04122894682303979</v>
+        <v>0.0547735800770468</v>
       </c>
       <c r="E11">
-        <v>0.1143072629545614</v>
+        <v>0.2972349939240857</v>
       </c>
       <c r="F11">
-        <v>1.910169149029656</v>
+        <v>4.122142674927943</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.142204973610276</v>
+        <v>2.065309193548615</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5803781312048102</v>
+        <v>1.849164779263262</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333960866045061</v>
+        <v>4.416560795750797</v>
       </c>
       <c r="C12">
-        <v>0.5560853916527435</v>
+        <v>1.969156266817947</v>
       </c>
       <c r="D12">
-        <v>0.04139976655374511</v>
+        <v>0.0557251861735395</v>
       </c>
       <c r="E12">
-        <v>0.1161413861724441</v>
+        <v>0.3061793581378112</v>
       </c>
       <c r="F12">
-        <v>1.934175194312019</v>
+        <v>4.237059642038275</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.152921812438493</v>
+        <v>2.118593441624157</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5928935943052096</v>
+        <v>1.904243348056852</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.327595930807604</v>
+        <v>4.389818456712476</v>
       </c>
       <c r="C13">
-        <v>0.5532220323208321</v>
+        <v>1.95691013761666</v>
       </c>
       <c r="D13">
-        <v>0.04136284386292743</v>
+        <v>0.05551795068213039</v>
       </c>
       <c r="E13">
-        <v>0.1157458823683797</v>
+        <v>0.3042433572005336</v>
       </c>
       <c r="F13">
-        <v>1.928997505798833</v>
+        <v>4.212192858232612</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.15060941593299</v>
+        <v>2.107056581341595</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5901963687232836</v>
+        <v>1.892337190103959</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.306850310752736</v>
+        <v>4.302913307287156</v>
       </c>
       <c r="C14">
-        <v>0.5438881315085951</v>
+        <v>1.917139879595084</v>
       </c>
       <c r="D14">
-        <v>0.04124294019405994</v>
+        <v>0.05485085049607363</v>
       </c>
       <c r="E14">
-        <v>0.1144579359140394</v>
+        <v>0.2979665513076597</v>
       </c>
       <c r="F14">
-        <v>1.912140740838993</v>
+        <v>4.131544735106417</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.143084704606522</v>
+        <v>2.069665702818554</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5814069780152806</v>
+        <v>1.85367656520279</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294152071615372</v>
+        <v>4.249911460763087</v>
       </c>
       <c r="C15">
-        <v>0.5381740042017782</v>
+        <v>1.892904418814339</v>
       </c>
       <c r="D15">
-        <v>0.04116988537495558</v>
+        <v>0.05444878455126201</v>
       </c>
       <c r="E15">
-        <v>0.1136704680071929</v>
+        <v>0.2941494764177506</v>
       </c>
       <c r="F15">
-        <v>1.901837550442167</v>
+        <v>4.0824814213899</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.138488255788502</v>
+        <v>2.046937844277878</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5760284628549641</v>
+        <v>1.830121544635219</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.221521182559854</v>
+        <v>3.949462357641266</v>
       </c>
       <c r="C16">
-        <v>0.5054761282407867</v>
+        <v>1.755803154385376</v>
       </c>
       <c r="D16">
-        <v>0.04075714068621039</v>
+        <v>0.05223870875192915</v>
       </c>
       <c r="E16">
-        <v>0.1091795720662248</v>
+        <v>0.272671014321098</v>
       </c>
       <c r="F16">
-        <v>1.843129545314468</v>
+        <v>3.806147526905448</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.11234028605476</v>
+        <v>1.91921387858352</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5452857932367863</v>
+        <v>1.696933419292023</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.177086010770552</v>
+        <v>3.767827179207814</v>
       </c>
       <c r="C17">
-        <v>0.4854584321332709</v>
+        <v>1.673150416385283</v>
       </c>
       <c r="D17">
-        <v>0.04050912755196379</v>
+        <v>0.05096023998994781</v>
       </c>
       <c r="E17">
-        <v>0.1064436997860128</v>
+        <v>0.2598190018406754</v>
       </c>
       <c r="F17">
-        <v>1.807410370923662</v>
+        <v>3.640604567464635</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.096469392312216</v>
+        <v>1.842940179826016</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5264960689365097</v>
+        <v>1.616695799393497</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.151572248965067</v>
+        <v>3.664247792534468</v>
       </c>
       <c r="C18">
-        <v>0.4739596112447657</v>
+        <v>1.62609465665787</v>
       </c>
       <c r="D18">
-        <v>0.04036835552144424</v>
+        <v>0.05025089884218659</v>
       </c>
       <c r="E18">
-        <v>0.1048770269032104</v>
+        <v>0.2525353844479739</v>
       </c>
       <c r="F18">
-        <v>1.786973341977529</v>
+        <v>3.546728132412653</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.08740270639295</v>
+        <v>1.799771627943798</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5157140274994703</v>
+        <v>1.571035302282823</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.142941268937648</v>
+        <v>3.629322569598685</v>
       </c>
       <c r="C19">
-        <v>0.4700688188489721</v>
+        <v>1.610240983255437</v>
       </c>
       <c r="D19">
-        <v>0.04032101237529417</v>
+        <v>0.05001497847553082</v>
       </c>
       <c r="E19">
-        <v>0.1043477581770205</v>
+        <v>0.2500869647307766</v>
       </c>
       <c r="F19">
-        <v>1.78007209966853</v>
+        <v>3.515162273244982</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.084343440057268</v>
+        <v>1.785270479626348</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5120677249783796</v>
+        <v>1.555655168252528</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.181811627981801</v>
+        <v>3.787068197333099</v>
       </c>
       <c r="C20">
-        <v>0.4875878067832105</v>
+        <v>1.681897768714236</v>
       </c>
       <c r="D20">
-        <v>0.04053533388334785</v>
+        <v>0.05109359221723508</v>
       </c>
       <c r="E20">
-        <v>0.1067342185639149</v>
+        <v>0.2611756594639658</v>
       </c>
       <c r="F20">
-        <v>1.811201565235393</v>
+        <v>3.658085617136862</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.098152461867727</v>
+        <v>1.850985633242956</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5284936390555686</v>
+        <v>1.625185438948634</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.31294191298548</v>
+        <v>4.328390906232642</v>
       </c>
       <c r="C21">
-        <v>0.5466290644652076</v>
+        <v>1.92879499368388</v>
       </c>
       <c r="D21">
-        <v>0.04127807744130507</v>
+        <v>0.05504541250368078</v>
       </c>
       <c r="E21">
-        <v>0.1148359370380732</v>
+        <v>0.2998043690657468</v>
       </c>
       <c r="F21">
-        <v>1.917087376346899</v>
+        <v>4.155162224603174</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.14529225393305</v>
+        <v>2.080611404705479</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5839875408696003</v>
+        <v>1.865005600708884</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.399046968058883</v>
+        <v>4.6922169044214</v>
       </c>
       <c r="C22">
-        <v>0.585356179735868</v>
+        <v>2.095609762841491</v>
       </c>
       <c r="D22">
-        <v>0.04178086281141447</v>
+        <v>0.05791469210039679</v>
       </c>
       <c r="E22">
-        <v>0.1201948807503115</v>
+        <v>0.3262584255828855</v>
       </c>
       <c r="F22">
-        <v>1.987274241148214</v>
+        <v>4.494728723779701</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.176665433310617</v>
+        <v>2.238350272888468</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6204895364001572</v>
+        <v>2.027231279217403</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.353053611058556</v>
+        <v>4.497005290330776</v>
       </c>
       <c r="C23">
-        <v>0.5646735557010629</v>
+        <v>2.006017192520289</v>
       </c>
       <c r="D23">
-        <v>0.04151089767735527</v>
+        <v>0.0563541117166082</v>
       </c>
       <c r="E23">
-        <v>0.1173287428476613</v>
+        <v>0.3120158660652166</v>
       </c>
       <c r="F23">
-        <v>1.949722884996618</v>
+        <v>4.312002517142531</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.159868634851733</v>
+        <v>2.153385053519216</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6009859683627354</v>
+        <v>1.940085705092073</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.179675074980764</v>
+        <v>3.778366722539545</v>
       </c>
       <c r="C24">
-        <v>0.4866250866321593</v>
+        <v>1.677941662329715</v>
       </c>
       <c r="D24">
-        <v>0.0405234803574146</v>
+        <v>0.05103322429581425</v>
       </c>
       <c r="E24">
-        <v>0.1066028556867167</v>
+        <v>0.2605619894570665</v>
       </c>
       <c r="F24">
-        <v>1.809487260072018</v>
+        <v>3.650178425386827</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.097391366546461</v>
+        <v>1.84734617353935</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5275904740860824</v>
+        <v>1.621345823205331</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9943406728968966</v>
+        <v>3.036495339458497</v>
       </c>
       <c r="C25">
-        <v>0.4029991464116733</v>
+        <v>1.342117218692749</v>
       </c>
       <c r="D25">
-        <v>0.03952983979668545</v>
+        <v>0.04626725468949644</v>
       </c>
       <c r="E25">
-        <v>0.09529676884171323</v>
+        <v>0.2091171831629666</v>
       </c>
       <c r="F25">
-        <v>1.662322545892408</v>
+        <v>2.986417772131688</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.032355068990114</v>
+        <v>1.543519709002183</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4493843379078157</v>
+        <v>1.295832845895291</v>
       </c>
       <c r="N25">
         <v>0</v>
